--- a/output.xlsx
+++ b/output.xlsx
@@ -17,9 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -49,9 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,8 +428,10 @@
           <t>Школа 3</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>9.259329861111111e-05</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>00:08.61</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -441,8 +440,10 @@
           <t>Школа 2</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>9.25935300925926e-05</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>00:08.81</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -451,8 +452,10 @@
           <t>Школа 4</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>0.0001041675231481481</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>00:09.74</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -461,8 +464,10 @@
           <t>Школа 5</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>0.0001273157523148148</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>00:11.81</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -471,8 +476,10 @@
           <t>Школа 1</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>0.003541667175925926</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>05:06.44</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -507,7 +514,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>0:0.0</t>
+          <t>00:00.00</t>
         </is>
       </c>
     </row>
@@ -524,7 +531,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0:0.0</t>
+          <t>00:00.00</t>
         </is>
       </c>
     </row>
@@ -541,7 +548,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0:0.0</t>
+          <t>00:00.00</t>
         </is>
       </c>
     </row>
@@ -558,7 +565,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:0.0</t>
+          <t>00:00.00</t>
         </is>
       </c>
     </row>
@@ -575,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:0.0</t>
+          <t>00:00.00</t>
         </is>
       </c>
     </row>
@@ -592,7 +599,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.00</t>
         </is>
       </c>
     </row>
@@ -609,7 +616,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.01</t>
         </is>
       </c>
     </row>
@@ -626,7 +633,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.02</t>
         </is>
       </c>
     </row>
@@ -643,7 +650,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.03</t>
         </is>
       </c>
     </row>
@@ -660,7 +667,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.04</t>
         </is>
       </c>
     </row>
@@ -677,7 +684,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.06</t>
         </is>
       </c>
     </row>
@@ -694,7 +701,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.07</t>
         </is>
       </c>
     </row>
@@ -711,7 +718,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.08</t>
         </is>
       </c>
     </row>
@@ -728,7 +735,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.09</t>
         </is>
       </c>
     </row>
@@ -745,7 +752,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.11</t>
         </is>
       </c>
     </row>
@@ -762,7 +769,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.12</t>
         </is>
       </c>
     </row>
@@ -779,7 +786,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.13</t>
         </is>
       </c>
     </row>
@@ -796,7 +803,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.14</t>
         </is>
       </c>
     </row>
@@ -813,7 +820,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.16</t>
         </is>
       </c>
     </row>
@@ -830,7 +837,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.17</t>
         </is>
       </c>
     </row>
@@ -847,7 +854,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.18</t>
         </is>
       </c>
     </row>
@@ -864,7 +871,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.19</t>
         </is>
       </c>
     </row>
@@ -881,7 +888,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.21</t>
         </is>
       </c>
     </row>
@@ -898,7 +905,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.22</t>
         </is>
       </c>
     </row>
@@ -915,7 +922,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.23</t>
         </is>
       </c>
     </row>
@@ -932,7 +939,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.24</t>
         </is>
       </c>
     </row>
@@ -949,7 +956,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0:1.0</t>
+          <t>00:01.26</t>
         </is>
       </c>
     </row>
@@ -966,7 +973,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.00</t>
         </is>
       </c>
     </row>
@@ -983,7 +990,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.00</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1007,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.01</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1024,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.02</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1041,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.03</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1058,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.05</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1075,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.06</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1092,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.07</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1109,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.08</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1126,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.10</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1143,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.11</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1160,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.12</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1177,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.13</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1194,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.14</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1211,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.15</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1228,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.16</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1245,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.17</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1262,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.18</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1279,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.20</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1296,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.21</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1313,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.22</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1330,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0:2.0</t>
+          <t>00:02.23</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1347,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0:7.0</t>
+          <t>00:07.00</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1364,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0:7.0</t>
+          <t>00:07.01</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1381,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0:7.0</t>
+          <t>00:07.02</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1398,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0:7.0</t>
+          <t>00:07.03</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1415,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.01</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1432,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.02</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1449,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.03</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1466,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.04</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1483,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.06</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1500,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.07</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1517,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.08</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1534,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.09</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1551,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.11</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1568,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.12</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1585,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.13</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1602,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.14</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1619,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.16</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1636,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.17</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1653,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.18</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1670,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.19</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1687,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.21</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1704,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.22</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1721,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0:30.0</t>
+          <t>00:30.23</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1738,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1:0.0</t>
+          <t>01:00.00</t>
         </is>
       </c>
     </row>
@@ -1748,7 +1755,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1:1.0</t>
+          <t>01:01.00</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1772,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1:1.0</t>
+          <t>01:01.05</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1789,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1:1.0</t>
+          <t>01:01.10</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1806,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1:1.0</t>
+          <t>01:01.15</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1823,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1:1.0</t>
+          <t>01:01.20</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1840,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1:1.0</t>
+          <t>01:01.25</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1857,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1:2.0</t>
+          <t>01:02.04</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1874,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1:2.0</t>
+          <t>01:02.09</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1891,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1:2.0</t>
+          <t>01:02.19</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1908,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1:30.0</t>
+          <t>01:30.00</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1925,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1:30.0</t>
+          <t>01:30.05</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1942,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1:30.0</t>
+          <t>01:30.10</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1959,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1:30.0</t>
+          <t>01:30.15</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1976,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1:30.0</t>
+          <t>01:30.20</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1993,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.00</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2010,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.01</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2027,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.02</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2044,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.03</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2061,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.04</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2078,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.05</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2095,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.06</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2112,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.07</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2129,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.08</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2146,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.09</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2163,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.10</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2180,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.11</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2197,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.12</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2214,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.13</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2231,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.14</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2248,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.15</t>
         </is>
       </c>
     </row>
@@ -2258,7 +2265,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>10:0.0</t>
+          <t>10:00.16</t>
         </is>
       </c>
     </row>
